--- a/out/11 Support Group Dissatisfaction.xlsx
+++ b/out/11 Support Group Dissatisfaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,38 +487,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G67663</t>
+          <t>G54737</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="E2" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1514587212911235</v>
+        <v>0.1507444168734491</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06002676911678131</v>
+        <v>-0.05990367535522886</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02626650091889652</v>
+        <v>-0.01949577826552578</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03418478471680402</v>
+        <v>-0.02203103657439105</v>
       </c>
       <c r="J2" t="n">
-        <v>6.080118390337501e-46</v>
+        <v>3.136907669320099e-45</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -526,38 +526,38 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G22415</t>
+          <t>G95644</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" t="n">
         <v>50.99999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2849162011173184</v>
+        <v>0.2865168539325842</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1298156791482949</v>
+        <v>-0.1338364626114917</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05777364895992584</v>
+        <v>-0.05735908885719887</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01525591234798565</v>
+        <v>-0.01255327639840761</v>
       </c>
       <c r="J3" t="n">
-        <v>4.796000899145382e-22</v>
+        <v>4.057811238109297e-22</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -565,38 +565,38 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G73911</t>
+          <t>G91876</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1604387582464641</v>
+        <v>-0.1533329338859274</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03222755335431392</v>
+        <v>-0.02393407795376622</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.563401061362602e-21</v>
+        <v>5.711192828876925e-21</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -604,38 +604,38 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>G66623</t>
+          <t>G50539</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2235772357723577</v>
+        <v>0.2336065573770492</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1187040577586515</v>
+        <v>-0.126689955030243</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04073083098267684</v>
+        <v>-0.03694135403222696</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01404915172791624</v>
+        <v>-0.01287913453583911</v>
       </c>
       <c r="J5" t="n">
-        <v>3.735497975308489e-19</v>
+        <v>1.037834011670046e-20</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>G27503</t>
+          <t>G34232</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -665,16 +665,16 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2483218586337385</v>
+        <v>-0.2531493005972306</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1244758304006859</v>
+        <v>-0.1275954688613425</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.713848603978044e-15</v>
+        <v>2.843413138328893e-15</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -682,38 +682,38 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G78365</t>
+          <t>G26746</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E7" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1218390804597701</v>
+        <v>0.1205098493626883</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06149977176723591</v>
+        <v>-0.06162240762074325</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.03897312156723438</v>
+        <v>-0.03454985229351563</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003609313264079121</v>
+        <v>-0.00279857383804339</v>
       </c>
       <c r="J7" t="n">
-        <v>2.621566737016777e-14</v>
+        <v>1.056330683332801e-13</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -721,38 +721,38 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>G67318</t>
+          <t>G72644</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1220423412204234</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04391363775664491</v>
+        <v>-0.04533464058023079</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02438219135894089</v>
+        <v>-0.02003237817102151</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02153374960925774</v>
+        <v>-0.01644363552942354</v>
       </c>
       <c r="J8" t="n">
-        <v>2.135995119582606e-13</v>
+        <v>1.367130629496818e-13</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -760,38 +760,38 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>G28704</t>
+          <t>G81742</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E9" t="n">
         <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1963470319634703</v>
+        <v>0.1945701357466063</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08138259366608627</v>
+        <v>-0.08295175806135228</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03353053872171415</v>
+        <v>-0.03226882157140663</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02216140090450997</v>
+        <v>-0.01539338720479258</v>
       </c>
       <c r="J9" t="n">
-        <v>3.041778604675035e-13</v>
+        <v>4.565867074540867e-13</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -799,38 +799,38 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>G31284</t>
+          <t>G66412</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1346863468634686</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0724608122782049</v>
+        <v>-0.442690990639907</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03466085818216196</v>
+        <v>-0.1110835517814452</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02258159851890235</v>
+        <v>-0.002380076064286595</v>
       </c>
       <c r="J10" t="n">
-        <v>2.153397925195366e-12</v>
+        <v>2.564597142345009e-12</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -838,38 +838,38 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G86952</t>
+          <t>G26801</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.1344383057090239</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4768816078983759</v>
+        <v>-0.07431827793862264</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1391290101467002</v>
+        <v>-0.02828222188918729</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005944055944055943</v>
+        <v>-0.01709724706446576</v>
       </c>
       <c r="J11" t="n">
-        <v>2.502419450280874e-12</v>
+        <v>2.640049394322843e-12</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -877,38 +877,38 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>G99308</t>
+          <t>G13953</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" t="n">
         <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2214765100671141</v>
+        <v>0.222972972972973</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1409346755164475</v>
+        <v>-0.1429669138848722</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04701310845103068</v>
+        <v>-0.04344114412002746</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04825572215468138</v>
+        <v>-0.03856994484478016</v>
       </c>
       <c r="J12" t="n">
-        <v>5.293518506024886e-12</v>
+        <v>4.645497483177371e-12</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -916,38 +916,38 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>G80458</t>
+          <t>G34398</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1782608695652174</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07471213750181607</v>
+        <v>-0.07372084281647988</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.03405975585933978</v>
+        <v>-0.03183581608898931</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.007111249011634567</v>
+        <v>-0.005016550374932489</v>
       </c>
       <c r="J13" t="n">
-        <v>2.664334272256328e-11</v>
+        <v>1.526510014759691e-11</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -955,38 +955,38 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>G40168</t>
+          <t>G55067</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1151671658061209</v>
+        <v>-0.1192004825178151</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0367004974454992</v>
+        <v>-0.03356523498538174</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0173382295489839</v>
+        <v>-0.009496344160378862</v>
       </c>
       <c r="J14" t="n">
-        <v>1.911412653162928e-09</v>
+        <v>4.787225387985911e-10</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>G28330</t>
+          <t>G18155</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1016,16 +1016,16 @@
         <v>0.2753623188405797</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2340722192010648</v>
+        <v>-0.2324236958227033</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.06597895281966343</v>
+        <v>-0.07010197437449703</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.006384717989315824</v>
+        <v>-0.005807560326428039</v>
       </c>
       <c r="J15" t="n">
-        <v>3.397911682334561e-09</v>
+        <v>3.53715816216494e-09</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G28285</t>
+          <t>G88861</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1055,16 +1055,16 @@
         <v>0.2982456140350877</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1357205810145573</v>
+        <v>-0.1363378331980698</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.05486269403330501</v>
+        <v>-0.04350797360104432</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.006301668615965125</v>
+        <v>-0.006848608912991424</v>
       </c>
       <c r="J16" t="n">
-        <v>5.909608095906224e-09</v>
+        <v>6.129922285732739e-09</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1072,38 +1072,38 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>G79112</t>
+          <t>G97310</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1455223880597015</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04200635560823381</v>
+        <v>-0.04561343794581308</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03953347918395086</v>
+        <v>-0.03612268501036358</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0193942057884308</v>
+        <v>-0.01211144822611136</v>
       </c>
       <c r="J17" t="n">
-        <v>3.031880414216501e-08</v>
+        <v>1.310819002320521e-08</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1111,38 +1111,38 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>G16663</t>
+          <t>G60460</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E18" t="n">
         <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1263157894736842</v>
+        <v>0.1266490765171504</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03823559377236237</v>
+        <v>-0.04087870304746363</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02050904872841534</v>
+        <v>-0.02037144782346017</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0009979433317313519</v>
+        <v>-0.001136460939557551</v>
       </c>
       <c r="J18" t="n">
-        <v>8.161263644240309e-08</v>
+        <v>8.096815669503781e-08</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1150,38 +1150,38 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G11958</t>
+          <t>G74823</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1223404255319149</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06724456548734359</v>
+        <v>-0.06992881442627362</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02504284075928604</v>
+        <v>-0.02316261509873486</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005520405208535381</v>
+        <v>-0.009686009320877969</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002742736665588083</v>
+        <v>0.000329373209310931</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1189,38 +1189,38 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>G59012</t>
+          <t>G38121</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1358926106249626</v>
+        <v>-0.06661777739729247</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04101285086853949</v>
+        <v>-0.02134302108339351</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02549776616677046</v>
+        <v>-0.003234612834026513</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003230432520235877</v>
+        <v>0.0003848827734444082</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1228,38 +1228,38 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>G16995</t>
+          <t>G99232</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>0.16</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05986142718548469</v>
+        <v>-0.1306418477914028</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.03656485005385084</v>
+        <v>-0.03217239255638558</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.008724265227036005</v>
+        <v>-0.01199921792974801</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007430624702625376</v>
+        <v>0.0004089659768063587</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1267,38 +1267,38 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>G83510</t>
+          <t>G55422</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1179775280898876</v>
+        <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06763712622268328</v>
+        <v>-0.05784520559430303</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02988842547934765</v>
+        <v>-0.03424839206001502</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01231296463989102</v>
+        <v>-0.01005848241606739</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0007954766014674498</v>
+        <v>0.0007592440026611587</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>G78198</t>
+          <t>G67312</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1328,16 +1328,16 @@
         <v>0.2258064516129032</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1512572729566758</v>
+        <v>-0.1534083966360509</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1101944070740018</v>
+        <v>-0.09002609005891972</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.02238434465492547</v>
+        <v>-0.0110215572671726</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001200242965468082</v>
+        <v>0.00121759561286363</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1345,38 +1345,38 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>G21678</t>
+          <t>G39964</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>0.101123595505618</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03740421084417098</v>
+        <v>-0.03802357175278775</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.02932845310541348</v>
+        <v>-0.02058900646957484</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01819467661061564</v>
+        <v>-0.01318538720838001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001711639127905169</v>
+        <v>0.001505534354557444</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1384,38 +1384,38 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>G99673</t>
+          <t>G24249</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="E25" t="n">
         <v>107</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07303754266211604</v>
+        <v>0.07283866575901975</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03242355451484066</v>
+        <v>-0.03339608630010877</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.02480644955082778</v>
+        <v>-0.01719198578908726</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.02809994500750403</v>
+        <v>-0.02106862650881272</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001812925506705623</v>
+        <v>0.002127735251339392</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>G85856</t>
+          <t>G72296</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1445,16 +1445,16 @@
         <v>0.1458333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.05000654107796965</v>
+        <v>-0.04366987179487179</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.06619003931473826</v>
+        <v>-0.05605063586709419</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01184199654764404</v>
+        <v>-0.007785824111117347</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01497145107313805</v>
+        <v>0.01515798582496107</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1462,38 +1462,38 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G56362</t>
+          <t>G88911</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>199</v>
+        <v>752</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08542713567839195</v>
+        <v>0.07047872340425532</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03652394705654825</v>
+        <v>-0.04336704422249319</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01803540104913257</v>
+        <v>-0.0149844875084345</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01833228439829683</v>
+        <v>-0.006001181832056501</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04683706525452352</v>
+        <v>0.03932238591125202</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>G56357</t>
+          <t>G47536</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1523,16 +1523,16 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1000130821559393</v>
+        <v>-0.08733974358974357</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1526917515189632</v>
+        <v>-0.1360032198851989</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.04265873015873015</v>
+        <v>-0.05228758169934641</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00288639336144341</v>
+        <v>0.002906920964923457</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1540,16 +1540,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>G19921</t>
+          <t>G24673</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1562,16 +1562,16 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3681323259368945</v>
+        <v>-0.3628955138843577</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1195431133811416</v>
+        <v>-0.1236459056393429</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01666445970491127</v>
+        <v>0.0167437787464759</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>G75874</t>
+          <t>G65940</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1601,16 +1601,16 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09413757709458968</v>
+        <v>-0.08288141397897494</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.04128374630116128</v>
+        <v>-0.02645610657258712</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02534009749884464</v>
+        <v>0.02554397102744769</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -1618,38 +1618,38 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>G41563</t>
+          <t>G92137</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7046703296703297</v>
+        <v>-0.03646398344588379</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1987179487179488</v>
+        <v>-0.01557781469379729</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.01138462528909989</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05351231080662817</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>G50003</t>
+          <t>G42260</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.34041248606466</v>
+        <v>-0.2658769801626945</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2559523809523809</v>
+        <v>-0.2816742081447964</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>G90954</t>
+          <t>G56929</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1512820512820513</v>
+        <v>-0.3514492753623188</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2239010989010989</v>
+        <v>-0.3137254901960784</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C30330</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>G55156</t>
+          <t>G90576</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.3833333333333334</v>
+        <v>-0.6919306184012066</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.02680412371134022</v>
+        <v>-0.1344944363812288</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.06984126984126993</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C61606</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>G81570</t>
+          <t>G90718</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1796,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6928560041902939</v>
+        <v>-0.4043859649122807</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.2794545048066174</v>
+        <v>-0.04554242749731474</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.02618083670715254</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0546904527931014</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -1813,38 +1813,38 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>G77282</t>
+          <t>G63097</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.7596514371362241</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-0.3600891861761427</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.05340820776304996</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06720094604933799</v>
+        <v>0.05482555505211151</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1852,38 +1852,38 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>G93930</t>
+          <t>G37379</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>751</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>51.99999999999999</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0692410119840213</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.04181313704156229</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01822190758701284</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01119503350677632</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06862698686818886</v>
+        <v>0.06749644519704377</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -1891,16 +1891,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>G47430</t>
+          <t>G41113</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01739140200350389</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1063898599594884</v>
+        <v>0.1066452686174509</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -1930,38 +1930,38 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C49668</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>G27763</t>
+          <t>G98269</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02076284174792867</v>
+        <v>-0.05752882449820106</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01536841472741137</v>
+        <v>-0.0296994450050169</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01090202432078885</v>
+        <v>-0.001304218850816396</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1225259761420701</v>
+        <v>0.129159992620014</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -1969,38 +1969,38 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C39022</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>G58042</t>
+          <t>G15597</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0562475950753287</v>
+        <v>-0.01968515146401786</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02491187838193032</v>
+        <v>-0.01419923389406582</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.002566388920135755</v>
+        <v>-0.008547020488538767</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1284621497163632</v>
+        <v>0.1306375021112387</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2008,38 +2008,38 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>G61549</t>
+          <t>G64707</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E41" t="n">
         <v>25</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06906077348066299</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02322160560394269</v>
+        <v>-0.02407363235367344</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02866775858235686</v>
+        <v>-0.02465278003844018</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.01962541877574328</v>
+        <v>-0.01263256163518242</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1393915061125386</v>
+        <v>0.133264058406152</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>G13821</t>
+          <t>G16863</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2069,16 +2069,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1799541809851088</v>
+        <v>-0.1347953216374269</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-0.1500126690591803</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1058962579439813</v>
+        <v>-0.102618348283983</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1552618031388107</v>
+        <v>0.1556239376239291</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>G62879</t>
+          <t>G40157</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2108,16 +2108,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1277777777777778</v>
+        <v>-0.2189239332096475</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.1832541223773507</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.08909423909423909</v>
+        <v>-0.03837761519702221</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1552618031388107</v>
+        <v>0.1556239376239291</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>G81633</t>
+          <t>G61233</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2147,16 +2147,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1827154912597951</v>
+        <v>-0.2050025138260433</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03751405736749187</v>
+        <v>-0.03534838421985347</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1552618031388107</v>
+        <v>0.1556239376239291</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>G90876</t>
+          <t>G35373</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2186,16 +2186,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2711455211455212</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.06623931623931627</v>
+        <v>0.005433126687482091</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0003833550069593007</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1552618031388107</v>
+        <v>0.1556239376239291</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2203,38 +2203,38 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>G75341</t>
+          <t>G72148</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.1729826546003017</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.001503362482499026</v>
+        <v>-0.03362360909530721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-0.01499851678438855</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1552618031388107</v>
+        <v>0.2019173239164136</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>G66430</t>
+          <t>G37643</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2264,16 +2264,16 @@
         <v>0.07258064516129033</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04171375689797599</v>
+        <v>-0.04323261412699631</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04284876044790922</v>
+        <v>-0.04269931310066834</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.02127216696209288</v>
+        <v>-0.01673055415208943</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2385095256931832</v>
+        <v>0.2406568334059787</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G23021</t>
+          <t>G92697</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2303,16 +2303,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1119263389208724</v>
+        <v>-0.1116836379994275</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.00703234880450071</v>
+        <v>-0.009595226576358659</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2864173787637067</v>
+        <v>0.2870290652862817</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2320,16 +2320,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>G46192</t>
+          <t>G17528</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2342,16 +2342,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02206373265392508</v>
+        <v>-0.03022395983831168</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01389372017050931</v>
+        <v>-0.006173733369293024</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.01010496650220646</v>
+        <v>-0.006399351483625138</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3066904199432179</v>
+        <v>0.3088594751708228</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>G77764</t>
+          <t>G68308</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2381,16 +2381,16 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.02021098294390219</v>
+        <v>-0.02278428093645484</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0582844835148822</v>
+        <v>-0.05640268619332209</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3607350192034132</v>
+        <v>0.3618822843616036</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -2398,16 +2398,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>G11808</t>
+          <t>G84124</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2420,16 +2420,16 @@
         <v>0.06779661016949153</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.06383795204062172</v>
+        <v>-0.06445108085348472</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.01270816682798748</v>
+        <v>-0.009250158417285487</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.01156778472190138</v>
+        <v>-0.01031986249831859</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4048089953576021</v>
+        <v>0.4066331523033354</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>G89365</t>
+          <t>G80112</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2462,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.06503553951193557</v>
+        <v>-0.06634488515789193</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4907998426695407</v>
+        <v>0.4916724462534469</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>G76891</t>
+          <t>G31215</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2498,16 +2498,16 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01967998276447825</v>
+        <v>-0.01894415153803016</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.005591917388750011</v>
+        <v>0.0006793248878523818</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.004286300645911467</v>
+        <v>-0.00272700305170701</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5453082996458707</v>
+        <v>0.5466716496160691</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>G97859</t>
+          <t>G36284</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2537,16 +2537,16 @@
         <v>0.05714285714285714</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03465450721916053</v>
+        <v>-0.03333702727979632</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.002033127158188223</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5775222289250415</v>
+        <v>0.5788949314561639</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G39356</t>
+          <t>G35332</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2576,16 +2576,16 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01105935931273612</v>
+        <v>-0.0109676666799122</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.01089835077371094</v>
+        <v>-0.004901623774239337</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.01642965880621588</v>
+        <v>-0.008946483695951067</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6093510796380064</v>
+        <v>0.6110504019900345</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2593,16 +2593,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>G83921</t>
+          <t>G79973</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2615,16 +2615,16 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03805597503302599</v>
+        <v>-0.03860549257801331</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.03816649836665581</v>
+        <v>-0.02882822667405591</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.02669201455180705</v>
+        <v>-0.02322987366534179</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6226396030081942</v>
+        <v>0.6240093610434307</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -2632,38 +2632,38 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>G82683</t>
+          <t>G21353</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>1768</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05</v>
+        <v>0.05316742081447964</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.03484708478433265</v>
+        <v>-0.02026977455008794</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.01051865621940822</v>
+        <v>-0.009695956848549415</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.01134579891347708</v>
+        <v>-0.02004280358696787</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6753010517011457</v>
+        <v>0.6349182915880786</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2671,38 +2671,38 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>G23891</t>
+          <t>G96459</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1775</v>
+        <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0523943661971831</v>
+        <v>0.05</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01963594629201666</v>
+        <v>-0.03551464063886424</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.01756551462575042</v>
+        <v>-0.003360933332733659</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.02475123620705872</v>
+        <v>-0.0102561973148699</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6792463553520907</v>
+        <v>0.6762279026453997</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -2710,38 +2710,38 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>G33339</t>
+          <t>G43363</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0481283422459893</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02104827743972701</v>
+        <v>-0.02057307740070955</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.006399118263895786</v>
+        <v>-0.004740508008193263</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.003804157428075658</v>
+        <v>-0.003058645324571576</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6989088414835745</v>
+        <v>0.7133923569283356</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -2749,38 +2749,38 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G73297</t>
+          <t>G21023</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02353705786776653</v>
+        <v>-0.02885136543673129</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.01824547579890881</v>
+        <v>-0.01807686522404963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7548956029013295</v>
+        <v>0.7416030981020452</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -2788,38 +2788,38 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>G85204</t>
+          <t>G11046</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02175864502621336</v>
+        <v>-0.02310486291678529</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.008552057958531605</v>
+        <v>-0.005153391316183323</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.002502611416769269</v>
+        <v>-0.001764531386398653</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8444211362436147</v>
+        <v>0.8512705792947922</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -2827,16 +2827,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>G82440</t>
+          <t>G93551</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.004851235412066263</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.008014925340866098</v>
+        <v>-0.004908605493072617</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9546505081201793</v>
+        <v>0.9550056066088299</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -2866,38 +2866,38 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>G39687</t>
+          <t>G57979</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0163837045848831</v>
+        <v>-0.01732493383662857</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.005375867273049377</v>
+        <v>-0.002583783149228139</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.008844927483409112</v>
+        <v>-0.005796512665231597</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9671046388405995</v>
+        <v>0.968878218576431</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -2905,38 +2905,38 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C56632</t>
+          <t>C88466</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G91836</t>
+          <t>G62151</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01716377326865373</v>
+        <v>-0.01671115229823877</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.01082231806951588</v>
+        <v>-0.006292292061421673</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.003153750067370747</v>
+        <v>-0.001764531386398653</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9766522733159761</v>
+        <v>0.9780156887392981</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -2944,38 +2944,38 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>G34190</t>
+          <t>G94156</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01455423525234469</v>
+        <v>-0.01431965367726992</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.009072550984003953</v>
+        <v>-0.007616564232383671</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.002129844499344953</v>
+        <v>-0.0005659817654486246</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9807254466228164</v>
+        <v>0.9818661295244521</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -2983,38 +2983,38 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>G40739</t>
+          <t>G63525</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01416918239464339</v>
+        <v>-0.01300313192049853</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.004174225617539397</v>
+        <v>-0.00265260323243115</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.002663759386132232</v>
+        <v>-0.002173475735460817</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9869739975431379</v>
+        <v>0.9941768252279465</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3022,16 +3022,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>G65972</t>
+          <t>G91840</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.02836900681735514</v>
+        <v>-0.03222658056826627</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.006765658523397037</v>
+        <v>-0.006360637585991295</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3065,12 +3065,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>G17302</t>
+          <t>G22738</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.1512820512820513</v>
+        <v>-0.09557740622022004</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.2239010989010989</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>G30821</t>
+          <t>G14937</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.4005894962486602</v>
+        <v>0.06290084100091352</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.3647186147186147</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3139,16 +3139,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>G35696</t>
+          <t>G72574</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.1512820512820513</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.3326673326673327</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3178,16 +3178,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>G68704</t>
+          <t>G14810</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.07034807927547135</v>
+        <v>-0.2658769801626945</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-0.2816742081447964</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>G74343</t>
+          <t>G16289</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3239,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3833333333333334</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.02680412371134022</v>
+        <v>-0.2658769801626945</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.06984126984126993</v>
+        <v>-0.2816742081447964</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3256,16 +3256,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>G75299</t>
+          <t>G25213</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>-0.05583756345177665</v>
       </c>
       <c r="I73" t="n">
-        <v>0.001150065020877902</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>G84387</t>
+          <t>G26015</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.02007549052955182</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>-0.02999703356877711</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3334,16 +3334,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>G87752</t>
+          <t>G35947</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>-0.4043859649122807</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.01031703919011112</v>
+        <v>-0.04554242749731474</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>-0.02618083670715254</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3373,16 +3373,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>G96684</t>
+          <t>G56765</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.06660296225513616</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1055544168887067</v>
+        <v>-0.02999703356877711</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>G96725</t>
+          <t>G67002</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>-0.04048311970178492</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3451,16 +3451,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C56632</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>G29068</t>
+          <t>G67342</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>-0.3514492753623188</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-0.3137254901960784</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3490,16 +3490,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G63355</t>
+          <t>G86866</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3529,16 +3529,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>G81351</t>
+          <t>G16616</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3568,16 +3568,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G86971</t>
+          <t>G16668</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.001150065020877902</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -3607,16 +3607,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>G17577</t>
+          <t>G47694</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3646,16 +3646,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>G34933</t>
+          <t>G99630</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.05941510032753903</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G81841</t>
+          <t>G64784</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.04565379545709995</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3724,20 +3724,20 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C88466</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>G25691</t>
+          <t>G95131</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>G36321</t>
+          <t>G37228</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-0.07202559971081425</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3806,12 +3806,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C31489</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>G69322</t>
+          <t>G53216</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.01003774526477591</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3841,16 +3841,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>G86463</t>
+          <t>G89906</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2510885341074021</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.05679828827076444</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.07831686133572929</v>
+        <v>-0.01499851678438855</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>G88175</t>
+          <t>G29205</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>-0.2182186234817814</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-0.02277121374865737</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.02951347258156118</v>
+        <v>-0.01309041835357627</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>G95163</t>
+          <t>G39033</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>-0.01499851678438855</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3958,16 +3958,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C65846</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>G77856</t>
+          <t>G50291</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3997,16 +3997,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>G22967</t>
+          <t>G51895</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -4036,16 +4036,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C71784</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>G49499</t>
+          <t>G57199</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.01550423473874207</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4075,16 +4075,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>G80065</t>
+          <t>G93146</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.03330148112756808</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.05277720844435335</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G24614</t>
+          <t>G29063</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.05800093736628564</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4153,16 +4153,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G45833</t>
+          <t>G34909</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.01298381821119018</v>
+        <v>-0.00999901118959237</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4192,16 +4192,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>G58694</t>
+          <t>G19857</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>-0.00999901118959237</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4231,16 +4231,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C48374</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>G66006</t>
+          <t>G19875</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.008181365336570537</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.007798010329611235</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -4270,16 +4270,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C43088</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>G13981</t>
+          <t>G72343</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4292,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-0.252238635062407</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.02889281759489599</v>
+        <v>-0.07975356359622789</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.0351848056295689</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -4309,20 +4309,20 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C84127</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>G65740</t>
+          <t>G41812</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4334,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.006136024002427902</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.02060524403798902</v>
+        <v>-0.00999901118959237</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -4348,16 +4348,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C75598</t>
+          <t>C35261</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G90916</t>
+          <t>G49451</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4387,16 +4387,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C83935</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>G79149</t>
+          <t>G57518</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.03943750512999598</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.06836357984995442</v>
+        <v>-0.01499851678438855</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4426,20 +4426,20 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C81507</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>G55865</t>
+          <t>G40018</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.1231779299054044</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>-0.02999703356877711</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4465,20 +4465,20 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>G10774</t>
+          <t>G39354</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.01595336970615237</v>
+        <v>-0.06531928998209502</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4504,16 +4504,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>G27508</t>
+          <t>G96056</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>-0.09458730778527734</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>-0.06862344343440244</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.02529726221276673</v>
+        <v>-0.004285290509825302</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -4543,16 +4543,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>G61392</t>
+          <t>G61000</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.002867927218507403</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>G68989</t>
+          <t>G72263</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.09031691767532109</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0460601009125749</v>
+        <v>-0.05697880920405457</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.01507920241267239</v>
+        <v>-0.05210364765455838</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -4621,20 +4621,20 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>G25660</t>
+          <t>G76959</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.09962849936202137</v>
+        <v>-0.01481206477198997</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4660,20 +4660,20 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>G83874</t>
+          <t>G78130</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -4682,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.08653118297657597</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.009654936109388501</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>-0.0128558715294759</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4699,20 +4699,20 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>G79705</t>
+          <t>G51569</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.06600404490606712</v>
+        <v>-0.1000999258353533</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.06197150393022515</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4738,20 +4738,20 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>G55690</t>
+          <t>G52706</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>-0.0837627284995706</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>-0.02437525819534422</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4777,20 +4777,20 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C95011</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>G61478</t>
+          <t>G73574</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.03314615633679853</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4816,20 +4816,20 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C28910</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>G87563</t>
+          <t>G47756</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.002210794112166668</v>
+        <v>-0.02702121874402178</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4855,20 +4855,20 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>G87754</t>
+          <t>G56926</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4877,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.06258002769054041</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.001824027616322597</v>
+        <v>-0.008674954221811054</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.006944346489779101</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4894,20 +4894,20 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>G19483</t>
+          <t>G85230</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>-0.05536477676458572</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.007479663181677666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.01796910573142519</v>
+        <v>-0.003529062772797307</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -4933,20 +4933,20 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C28436</t>
+          <t>C42457</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>G44768</t>
+          <t>G59585</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4955,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.03782469645413808</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.01380309557060936</v>
+        <v>-0.003006281550074565</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.01176201610494215</v>
+        <v>-0.004736373721385858</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -4972,20 +4972,20 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C56632</t>
+          <t>C37980</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>G16095</t>
+          <t>G79559</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>-0.03452961077891928</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.028653527979761</v>
+        <v>-0.006113383471874037</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.02785179534665369</v>
+        <v>-0.005454006103414019</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -5011,20 +5011,20 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C75394</t>
+          <t>C88466</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>G32803</t>
+          <t>G76116</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5033,18 +5033,57 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.007740660534164792</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.001085447489987962</v>
+        <v>-0.02250835220374293</v>
       </c>
       <c r="I118" t="n">
-        <v>4.107375074563937e-05</v>
+        <v>-0.02179532212111474</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
       </c>
       <c r="K118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>C42457</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>G29530</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>57</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.00629974381649603</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.0005837273596362039</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.000526263746820651</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
     </row>

--- a/out/11 Support Group Dissatisfaction.xlsx
+++ b/out/11 Support Group Dissatisfaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,38 +487,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G54737</t>
+          <t>G97489</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="E2" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1507444168734491</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05990367535522886</v>
+        <v>-0.05990092091566601</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01949577826552578</v>
+        <v>-0.03139831744141096</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02203103657439105</v>
+        <v>-0.02312654169015953</v>
       </c>
       <c r="J2" t="n">
-        <v>3.136907669320099e-45</v>
+        <v>5.69743012911419e-46</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -526,38 +526,38 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G95644</t>
+          <t>G43518</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>50.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2865168539325842</v>
+        <v>0.2840909090909091</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1338364626114917</v>
+        <v>-0.1297626752250001</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05735908885719887</v>
+        <v>-0.06583395546801864</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01255327639840761</v>
+        <v>-0.006641555900308093</v>
       </c>
       <c r="J3" t="n">
-        <v>4.057811238109297e-22</v>
+        <v>2.546239099746898e-22</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -565,38 +565,38 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G91876</t>
+          <t>G90197</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.2398373983739837</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1533329338859274</v>
+        <v>-0.1288950257888822</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02393407795376622</v>
+        <v>-0.05370773166321965</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0.01575927651654105</v>
       </c>
       <c r="J4" t="n">
-        <v>5.711192828876925e-21</v>
+        <v>6.005972192043832e-22</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -604,38 +604,38 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>G50539</t>
+          <t>G94392</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2336065573770492</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.126689955030243</v>
+        <v>-0.1543375263232517</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03694135403222696</v>
+        <v>-0.02523803864407788</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01287913453583911</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.037834011670046e-20</v>
+        <v>1.088671025647757e-20</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>G34232</t>
+          <t>G56815</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -665,16 +665,16 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2531493005972306</v>
+        <v>-0.2705742172001534</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1275954688613425</v>
+        <v>-0.1216271310622281</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.843413138328893e-15</v>
+        <v>2.952735673843728e-15</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -682,38 +682,38 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G26746</t>
+          <t>G31248</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>863</v>
+        <v>817</v>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1205098493626883</v>
+        <v>0.1248470012239902</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06162240762074325</v>
+        <v>-0.04564767612564961</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.03454985229351563</v>
+        <v>-0.02578403416251344</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00279857383804339</v>
+        <v>-0.01564669070068629</v>
       </c>
       <c r="J7" t="n">
-        <v>1.056330683332801e-13</v>
+        <v>2.221497857415034e-14</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -721,38 +721,38 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>G72644</t>
+          <t>G61824</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1226765799256506</v>
+        <v>0.1207897793263647</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04533464058023079</v>
+        <v>-0.06319770562624655</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02003237817102151</v>
+        <v>-0.03858655933522015</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01644363552942354</v>
+        <v>-0.004049535217079761</v>
       </c>
       <c r="J8" t="n">
-        <v>1.367130629496818e-13</v>
+        <v>1.030527611410803e-13</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -760,38 +760,38 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>G81742</t>
+          <t>G83212</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1945701357466063</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08295175806135228</v>
+        <v>-0.0781423199171522</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03226882157140663</v>
+        <v>-0.04472197257413997</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01539338720479258</v>
+        <v>-0.01290403021479741</v>
       </c>
       <c r="J9" t="n">
-        <v>4.565867074540867e-13</v>
+        <v>2.373729139599068e-12</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -799,38 +799,38 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>G66412</t>
+          <t>G22778</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.1349353049907578</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.442690990639907</v>
+        <v>-0.07114886473649239</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1110835517814452</v>
+        <v>-0.03244363286684982</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002380076064286595</v>
+        <v>-0.01915471444523832</v>
       </c>
       <c r="J10" t="n">
-        <v>2.564597142345009e-12</v>
+        <v>2.422448855466477e-12</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -838,38 +838,38 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G26801</t>
+          <t>G34791</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1344383057090239</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07431827793862264</v>
+        <v>-0.4837428373938456</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02828222188918729</v>
+        <v>-0.1879871819507606</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01709724706446576</v>
+        <v>0.001277613763616004</v>
       </c>
       <c r="J11" t="n">
-        <v>2.640049394322843e-12</v>
+        <v>2.61603036642115e-12</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -877,16 +877,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>G13953</t>
+          <t>G29541</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -899,16 +899,16 @@
         <v>0.222972972972973</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1429669138848722</v>
+        <v>-0.1374314420884138</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04344114412002746</v>
+        <v>-0.06337673196203421</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03856994484478016</v>
+        <v>-0.03555919759035153</v>
       </c>
       <c r="J12" t="n">
-        <v>4.645497483177371e-12</v>
+        <v>4.898586900974947e-12</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -916,38 +916,38 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>G34398</t>
+          <t>G70178</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" t="n">
         <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1787234042553192</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07372084281647988</v>
+        <v>-0.07701213675030436</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.03183581608898931</v>
+        <v>-0.03261469923356352</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.005016550374932489</v>
+        <v>-0.003851791530537215</v>
       </c>
       <c r="J13" t="n">
-        <v>1.526510014759691e-11</v>
+        <v>1.409167023665786e-11</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -955,38 +955,38 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>G55067</t>
+          <t>G79141</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1192004825178151</v>
+        <v>-0.2391183602560741</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.03356523498538174</v>
+        <v>-0.04773940438802065</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.009496344160378862</v>
+        <v>-0.001998088252462649</v>
       </c>
       <c r="J14" t="n">
-        <v>4.787225387985911e-10</v>
+        <v>3.934156412106793e-10</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -994,38 +994,38 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>G18155</t>
+          <t>G76662</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2753623188405797</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2324236958227033</v>
+        <v>-0.109333989340236</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.07010197437449703</v>
+        <v>-0.0381883185650631</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.005807560326428039</v>
+        <v>-0.01339901011637951</v>
       </c>
       <c r="J15" t="n">
-        <v>3.53715816216494e-09</v>
+        <v>4.068111542492015e-10</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1033,38 +1033,38 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G88861</t>
+          <t>G71272</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1363378331980698</v>
+        <v>-0.04892308086130393</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04350797360104432</v>
+        <v>-0.03945262311624093</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.006848608912991424</v>
+        <v>-0.006301537555418026</v>
       </c>
       <c r="J16" t="n">
-        <v>6.129922285732739e-09</v>
+        <v>1.958262929545955e-09</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1072,38 +1072,38 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>G97310</t>
+          <t>G32866</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04561343794581308</v>
+        <v>-0.1293088189935853</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03612268501036358</v>
+        <v>-0.04982984822214751</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01211144822611136</v>
+        <v>-0.007868763320376729</v>
       </c>
       <c r="J17" t="n">
-        <v>1.310819002320521e-08</v>
+        <v>6.314101010338773e-09</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1111,38 +1111,38 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>G60460</t>
+          <t>G30821</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E18" t="n">
         <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1266490765171504</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04087870304746363</v>
+        <v>-0.04218694052224917</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02037144782346017</v>
+        <v>-0.01862994282061622</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001136460939557551</v>
+        <v>-0.0001972431740675188</v>
       </c>
       <c r="J18" t="n">
-        <v>8.096815669503781e-08</v>
+        <v>1.091698639865589e-07</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1150,38 +1150,38 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G74823</t>
+          <t>G45151</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06992881442627362</v>
+        <v>-0.1330177710451841</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02316261509873486</v>
+        <v>-0.05171701012977563</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.009686009320877969</v>
+        <v>-0.02142243615887311</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000329373209310931</v>
+        <v>0.0004144651738373758</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1189,38 +1189,38 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>G38121</t>
+          <t>G15817</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1197916666666667</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06661777739729247</v>
+        <v>-0.0618103649767888</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.02134302108339351</v>
+        <v>-0.0195234779818806</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.003234612834026513</v>
+        <v>-0.00212405826139379</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003848827734444082</v>
+        <v>0.0004261347608641671</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1228,38 +1228,38 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>G99232</t>
+          <t>G33006</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1306418477914028</v>
+        <v>-0.06782877747602492</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.03217239255638558</v>
+        <v>-0.03253648185322347</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01199921792974801</v>
+        <v>-0.004001236396809889</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004089659768063587</v>
+        <v>0.0009045705873370802</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1267,38 +1267,38 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>G55422</t>
+          <t>G41153</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
         <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.05784520559430303</v>
+        <v>-0.05743719554489546</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03424839206001502</v>
+        <v>-0.03450325215286289</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01005848241606739</v>
+        <v>-0.003951515469379728</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0007592440026611587</v>
+        <v>0.0009820098239844914</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1306,38 +1306,38 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>G67312</t>
+          <t>G98664</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.1050583657587549</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1534083966360509</v>
+        <v>-0.04233450345992267</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09002609005891972</v>
+        <v>-0.03187298334565444</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0110215572671726</v>
+        <v>-0.01430033718831544</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00121759561286363</v>
+        <v>0.001044117031281985</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1345,38 +1345,38 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>G39964</t>
+          <t>G82135</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022727272727273</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03802357175278775</v>
+        <v>-0.1323626471030576</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.02058900646957484</v>
+        <v>-0.1130311232818142</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01318538720838001</v>
+        <v>-0.002969820125024294</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001505534354557444</v>
+        <v>0.001231811597839276</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1384,38 +1384,38 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>G24249</t>
+          <t>G26561</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="E25" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07283866575901975</v>
+        <v>0.07336956521739131</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03339608630010877</v>
+        <v>-0.03252269847021412</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01719198578908726</v>
+        <v>-0.0293018140868461</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.02106862650881272</v>
+        <v>-0.02806509933528424</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002127735251339392</v>
+        <v>0.001727716064573162</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1423,38 +1423,38 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>G72296</t>
+          <t>G89475</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04366987179487179</v>
+        <v>-0.03408302497687327</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.05605063586709419</v>
+        <v>-0.06508710629966748</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.007785824111117347</v>
+        <v>-0.004616724067524983</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01515798582496107</v>
+        <v>0.03909913914341511</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1462,41 +1462,41 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G88911</t>
+          <t>G35694</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>752</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07047872340425532</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.04336704422249319</v>
+        <v>-0.08710106382978723</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0149844875084345</v>
+        <v>-0.1691181151535454</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.006001181832056501</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03932238591125202</v>
+        <v>0.00292363394597928</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1505,34 +1505,34 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>G47536</t>
+          <t>G89897</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08733974358974357</v>
+        <v>-0.3137324038254889</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1360032198851989</v>
+        <v>-0.08431772128580636</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05228758169934641</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002906920964923457</v>
+        <v>0.01680822242045466</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1540,38 +1540,38 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>G24673</t>
+          <t>G35285</t>
         </is>
       </c>
       <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3628955138843577</v>
+        <v>-0.08582028229829448</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1236459056393429</v>
+        <v>-0.03948936038863812</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0167437787464759</v>
+        <v>0.02173671908521699</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1579,38 +1579,38 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>G65940</t>
+          <t>G60796</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.08288141397897494</v>
+        <v>-0.03402465267259346</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02645610657258712</v>
+        <v>-0.0178885035218978</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-0.01195298501124374</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02554397102744769</v>
+        <v>0.05431581795021512</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -1618,38 +1618,38 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C37760</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>G92137</t>
+          <t>G56395</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08415841584158416</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.03646398344588379</v>
+        <v>-0.5085526315789474</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01557781469379729</v>
+        <v>-0.1781954887218045</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.01138462528909989</v>
+        <v>0.01405375139977605</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05351231080662817</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>G42260</t>
+          <t>G78755</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1682,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.2658769801626945</v>
+        <v>-0.2166916167664671</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2816742081447964</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>G56929</t>
+          <t>G82826</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0.5226063829787234</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.3514492753623188</v>
+        <v>-0.1922492401215805</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3137254901960784</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -1735,16 +1735,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>G90576</t>
+          <t>G89901</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6919306184012066</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.1344944363812288</v>
+        <v>-0.2166916167664671</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C61606</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>G90718</t>
+          <t>G45196</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1796,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.4043859649122807</v>
+        <v>-0.7820308346624136</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.04554242749731474</v>
+        <v>-0.1450216450216449</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.02618083670715254</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.05493510413522804</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -1813,38 +1813,38 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>G63097</t>
+          <t>G47962</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.7596514371362241</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.3600891861761427</v>
+        <v>0.00487377517691889</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.004914553917046049</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05482555505211151</v>
+        <v>0.06773640265605392</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1852,38 +1852,38 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>G37379</t>
+          <t>G73435</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>752</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>0.25</v>
+        <v>0.06648936170212766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-0.04367038889991638</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.01710491666172543</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-0.01005701477557476</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06749644519704377</v>
+        <v>0.09751420345524152</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -1891,16 +1891,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>G41113</t>
+          <t>G15101</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-0.01372819100091827</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1066452686174509</v>
+        <v>0.1068523426041077</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -1930,16 +1930,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C49668</t>
+          <t>C79205</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>G98269</t>
+          <t>G92200</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1952,16 +1952,16 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.05752882449820106</v>
+        <v>-0.0755031212943149</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0296994450050169</v>
+        <v>-0.02309438327167567</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.001304218850816396</v>
+        <v>-0.0038038658991068</v>
       </c>
       <c r="J39" t="n">
-        <v>0.129159992620014</v>
+        <v>0.1297269075933278</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -1969,38 +1969,38 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>G15597</t>
+          <t>G56747</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E40" t="n">
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01968515146401786</v>
+        <v>-0.0207866242989281</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.01419923389406582</v>
+        <v>-0.02094053555013596</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.008547020488538767</v>
+        <v>-0.003611251404403169</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1306375021112387</v>
+        <v>0.1462926760546005</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2008,38 +2008,38 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>G64707</t>
+          <t>G38410</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06963788300835655</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02407363235367344</v>
+        <v>-0.2443985183177486</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02465278003844018</v>
+        <v>-0.07859387480645194</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.01263256163518242</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.133264058406152</v>
+        <v>0.1559175021712861</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>G16863</t>
+          <t>G71226</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2069,16 +2069,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1347953216374269</v>
+        <v>-0.193452380952381</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1500126690591803</v>
+        <v>0.01362715744980627</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.102618348283983</v>
+        <v>0.01619357045143639</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1556239376239291</v>
+        <v>0.1559175021712861</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>G40157</t>
+          <t>G97305</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2108,16 +2108,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2189239332096475</v>
+        <v>-0.1695175438596491</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-0.189437469432879</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.03837761519702221</v>
+        <v>0.00468458379992535</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1556239376239291</v>
+        <v>0.1559175021712861</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>G61233</t>
+          <t>G16057</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2147,16 +2147,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.2050025138260433</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.03534838421985347</v>
+        <v>-0.01450302343159486</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1556239376239291</v>
+        <v>0.1559175021712861</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2164,38 +2164,38 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>G35373</t>
+          <t>G81739</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>-0.1306515957446809</v>
       </c>
       <c r="H45" t="n">
-        <v>0.005433126687482091</v>
+        <v>-0.04806231003039513</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-0.02525007559670825</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1556239376239291</v>
+        <v>0.2022872620882299</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2203,38 +2203,38 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>G72148</t>
+          <t>G24058</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>0.25</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1729826546003017</v>
+        <v>-0.04113076839975657</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.03362360909530721</v>
+        <v>-0.04336256727954685</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.01499851678438855</v>
+        <v>-0.01472299780188348</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2019173239164136</v>
+        <v>0.2424031771500346</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2242,38 +2242,38 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>G37643</t>
+          <t>G47364</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>124</v>
+        <v>358</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.06424581005586592</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04323261412699631</v>
+        <v>-0.02596686665497321</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.04269931310066834</v>
+        <v>-0.0333664971939339</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.01673055415208943</v>
+        <v>-0.008148144353649139</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2406568334059787</v>
+        <v>0.2492431876377608</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2281,38 +2281,38 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G92697</t>
+          <t>G26388</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1116836379994275</v>
+        <v>-0.02895658987969721</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.009595226576358659</v>
+        <v>-0.0226087698444433</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>-0.007744595360351429</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2870290652862817</v>
+        <v>0.2585027639663567</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2320,38 +2320,38 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>G17528</t>
+          <t>G74759</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>7.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.03022395983831168</v>
+        <v>-0.1300965863009658</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.006173733369293024</v>
+        <v>-0.02155979765014032</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.006399351483625138</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3088594751708228</v>
+        <v>0.2875247368592392</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2359,38 +2359,38 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>G68308</t>
+          <t>G62397</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.02278428093645484</v>
+        <v>-0.02375483558994197</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.05640268619332209</v>
+        <v>-0.06259213596785937</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3618822843616036</v>
+        <v>0.3425438261099191</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -2398,16 +2398,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>G84124</t>
+          <t>G29455</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2420,16 +2420,16 @@
         <v>0.06779661016949153</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.06445108085348472</v>
+        <v>-0.05894048829031073</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.009250158417285487</v>
+        <v>-0.01995141026501349</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.01031986249831859</v>
+        <v>-0.01537486028187707</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4066331523033354</v>
+        <v>0.4081116627714242</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -2437,38 +2437,38 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>G80112</t>
+          <t>G69698</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.06634488515789193</v>
+        <v>-0.09125992225401788</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4916724462534469</v>
+        <v>0.4316494071455748</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -2476,38 +2476,38 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>G31215</t>
+          <t>G51630</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01894415153803016</v>
+        <v>-0.0184903748733536</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0006793248878523818</v>
+        <v>-0.006026227418124944</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.00272700305170701</v>
+        <v>-0.006641209848367744</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5466716496160691</v>
+        <v>0.5641051649056503</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>G36284</t>
+          <t>G16761</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2537,16 +2537,16 @@
         <v>0.05714285714285714</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03333702727979632</v>
+        <v>-0.03296573287700174</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>-0.00367717856639382</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5788949314561639</v>
+        <v>0.5800057340054666</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G35332</t>
+          <t>G66565</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2576,16 +2576,16 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0109676666799122</v>
+        <v>-0.0103234276166607</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.004901623774239337</v>
+        <v>-0.01389032727980156</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.008946483695951067</v>
+        <v>-0.01265002633508958</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6110504019900345</v>
+        <v>0.6124248394789343</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2593,38 +2593,38 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>G79973</t>
+          <t>G22625</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>38</v>
+        <v>1776</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05349099099099099</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03860549257801331</v>
+        <v>-0.02052258640455021</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.02882822667405591</v>
+        <v>-0.01858371241401432</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.02322987366534179</v>
+        <v>-0.02274851050460565</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6240093610434307</v>
+        <v>0.6198926045094033</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -2632,38 +2632,38 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>G21353</t>
+          <t>G10405</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1768</v>
+        <v>38</v>
       </c>
       <c r="E57" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05316742081447964</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02026977455008794</v>
+        <v>-0.03438295642630228</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.009695956848549415</v>
+        <v>-0.02918902923969785</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.02004280358696787</v>
+        <v>-0.01394075274059844</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6349182915880786</v>
+        <v>0.6251173505765291</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2671,38 +2671,38 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>G96459</t>
+          <t>G20145</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03551464063886424</v>
+        <v>-0.0272108843537415</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.003360933332733659</v>
+        <v>-0.01058676985510893</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.0102561973148699</v>
+        <v>-0.007219371589104577</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6762279026453997</v>
+        <v>0.6947228725861571</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -2710,38 +2710,38 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>G43363</t>
+          <t>G59167</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02057307740070955</v>
+        <v>-0.02326151758752593</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.004740508008193263</v>
+        <v>-0.0077537584598216</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.003058645324571576</v>
+        <v>-0.002519342814252765</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7133923569283356</v>
+        <v>0.6979384620251549</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G21023</t>
+          <t>G75156</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2771,16 +2771,16 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02885136543673129</v>
+        <v>-0.02794302911534155</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.01807686522404963</v>
+        <v>-0.01801687319355152</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7416030981020452</v>
+        <v>0.7423209197625489</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -2788,16 +2788,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>G11046</t>
+          <t>G34601</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2810,16 +2810,16 @@
         <v>0.03529411764705882</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02310486291678529</v>
+        <v>-0.02193064605521353</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.005153391316183323</v>
+        <v>-0.008216747577469433</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.001764531386398653</v>
+        <v>-0.003220769743506489</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8512705792947922</v>
+        <v>0.8522258063885195</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -2827,38 +2827,38 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>G93551</t>
+          <t>G62454</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-0.01133102991612618</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-0.006573278216162913</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.004908605493072617</v>
+        <v>-0.005108583478847416</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9550056066088299</v>
+        <v>0.9577476005263417</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -2866,38 +2866,38 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>G57979</t>
+          <t>G31851</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02419354838709677</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.01732493383662857</v>
+        <v>-0.015174635766223</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.002583783149228139</v>
+        <v>-0.00629745880923834</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.005796512665231597</v>
+        <v>-0.006835056516675382</v>
       </c>
       <c r="J63" t="n">
-        <v>0.968878218576431</v>
+        <v>0.9729081548988228</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -2905,38 +2905,38 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C88466</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G62151</t>
+          <t>G44988</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01671115229823877</v>
+        <v>-0.01414468850669265</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.006292292061421673</v>
+        <v>-0.006796056015275304</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.001764531386398653</v>
+        <v>-0.001178272213994818</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9780156887392981</v>
+        <v>0.9820549937795544</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -2944,38 +2944,38 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>G94156</t>
+          <t>G35125</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.0274390243902439</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01431965367726992</v>
+        <v>-0.01315403604621435</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.007616564232383671</v>
+        <v>-0.005274864950343931</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.0005659817654486246</v>
+        <v>-0.002495910411321032</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9818661295244521</v>
+        <v>0.9941110535407209</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -2983,38 +2983,38 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C31039</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>G63525</t>
+          <t>G69540</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02735562310030395</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01300313192049853</v>
+        <v>-0.02062925180864425</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.00265260323243115</v>
+        <v>-0.00861691907322521</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.002173475735460817</v>
+        <v>-0.005160842215329355</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9941768252279465</v>
+        <v>0.9970314247060594</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3022,16 +3022,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>G91840</t>
+          <t>G20636</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.03222658056826627</v>
+        <v>-0.02154564818530294</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.006360637585991295</v>
+        <v>-0.0001562239457243296</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3061,16 +3061,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>G22738</t>
+          <t>G30790</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.09557740622022004</v>
+        <v>0.01094350783791777</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>G14937</t>
+          <t>G33658</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.06290084100091352</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.07246093325509118</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3139,16 +3139,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>G72574</t>
+          <t>G53661</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.001825961060570045</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3178,16 +3178,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>G14810</t>
+          <t>G54019</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.2658769801626945</v>
+        <v>0.01094350783791777</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.2816742081447964</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C31039</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>G16289</t>
+          <t>G91209</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3242,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.2658769801626945</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.2816742081447964</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3256,16 +3256,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>G25213</t>
+          <t>G55121</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.05583756345177665</v>
+        <v>0.01094350783791777</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>G26015</t>
+          <t>G32589</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>-0.06793430682494658</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.02999703356877711</v>
+        <v>-0.1118908382066277</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3334,16 +3334,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>G35947</t>
+          <t>G34476</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4043859649122807</v>
+        <v>-0.5085526315789474</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.04554242749731474</v>
+        <v>-0.1781954887218045</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.02618083670715254</v>
+        <v>0.01405375139977605</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3373,16 +3373,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>G56765</t>
+          <t>G44017</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>-0.2965255591054313</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.02999703356877711</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>G67002</t>
+          <t>G48191</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.04048311970178492</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3451,16 +3451,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>G67342</t>
+          <t>G57624</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.3514492753623188</v>
+        <v>-0.2166916167664671</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.3137254901960784</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3490,16 +3490,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G86866</t>
+          <t>G67709</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>-0.007654973340492151</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3529,16 +3529,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>G16616</t>
+          <t>G70908</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.2166916167664671</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3568,16 +3568,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G16668</t>
+          <t>G74958</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>-0.04350907029478458</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3607,16 +3607,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>G47694</t>
+          <t>G86473</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>-0.04353238429777531</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>G99630</t>
+          <t>G56371</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-0.09461155795248501</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G64784</t>
+          <t>G71081</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3724,16 +3724,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C88466</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>G95131</t>
+          <t>G93598</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>-0.04350907029478458</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3763,20 +3763,20 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>G37228</t>
+          <t>G98399</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.07202559971081425</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C31489</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>G53216</t>
+          <t>G30687</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3841,16 +3841,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C15468</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>G89906</t>
+          <t>G60960</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.01499851678438855</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>G29205</t>
+          <t>G17975</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3902,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2182186234817814</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.02277121374865737</v>
+        <v>0.02196835255841467</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.01309041835357627</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>G39033</t>
+          <t>G22440</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.01499851678438855</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3958,16 +3958,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>G50291</t>
+          <t>G39455</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.02212594553572536</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>-0.02709026622296173</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -3997,16 +3997,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>G51895</t>
+          <t>G58091</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>-0.03143070086140287</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>G57199</t>
+          <t>G60223</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4075,16 +4075,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>G93146</t>
+          <t>G65098</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4097,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>-0.2542763157894737</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>-0.08909774436090223</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.007026875699888024</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G29063</t>
+          <t>G47862</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>-0.06907197112513017</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4153,20 +4153,20 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G34909</t>
+          <t>G48248</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>-0.06168831168831169</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.00999901118959237</v>
+        <v>-0.06097875634299476</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4192,16 +4192,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C12484</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>G19857</t>
+          <t>G92219</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -4214,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>-0.2237309600028142</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>-0.05802878083200744</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.00999901118959237</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4231,16 +4231,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>G19875</t>
+          <t>G23980</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -4270,16 +4270,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C43088</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>G72343</t>
+          <t>G66203</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4292,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.252238635062407</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.07975356359622789</v>
+        <v>0.0002825113424230729</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>-0.01612702849600124</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -4309,16 +4309,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C84127</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>G41812</t>
+          <t>G59224</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4334,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>-0.03715556370757397</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.00999901118959237</v>
+        <v>-0.0372969460688759</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -4348,20 +4348,20 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C35261</t>
+          <t>C86297</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G49451</t>
+          <t>G91832</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>-3.635943151352137e-05</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.001279056834612389</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -4387,16 +4387,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>G57518</t>
+          <t>G91855</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>-0.0258599344708628</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.01499851678438855</v>
+        <v>-0.04400972423165303</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C81507</t>
+          <t>C82879</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>G40018</t>
+          <t>G27027</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>-0.038684477843162</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.02999703356877711</v>
+        <v>-0.07271758034355238</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4465,20 +4465,20 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C85436</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>G39354</t>
+          <t>G46465</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.06531928998209502</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4504,20 +4504,20 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>G96056</t>
+          <t>G44551</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.09458730778527734</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.06862344343440244</v>
+        <v>-0.1651377124880624</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.004285290509825302</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -4543,20 +4543,20 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>G61000</t>
+          <t>G23647</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>-0.1221992591588743</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>-0.0903296376403024</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>-0.01864847303443795</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>G72263</t>
+          <t>G30193</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.05697880920405457</v>
+        <v>-0.01191612092491579</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.05210364765455838</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>G76959</t>
+          <t>G53241</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.01481206477198997</v>
+        <v>-0.003220675710969665</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4660,16 +4660,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>G78130</t>
+          <t>G54419</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.01079219112794819</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.0128558715294759</v>
+        <v>-0.02322022819111005</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4699,20 +4699,20 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>G51569</t>
+          <t>G82765</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.1000999258353533</v>
+        <v>-0.08807112125459891</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>0.02469422678329265</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4738,16 +4738,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>G52706</t>
+          <t>G24269</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4760,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.0837627284995706</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.02437525819534422</v>
+        <v>-0.1271244457108539</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4777,20 +4777,20 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>G73574</t>
+          <t>G74807</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>-0.09562225306500115</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>-0.01812403387705563</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4816,20 +4816,20 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C28910</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>G47756</t>
+          <t>G19169</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.02702121874402178</v>
+        <v>0.003937583585720864</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4855,20 +4855,20 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C74016</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>G56926</t>
+          <t>G66697</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.008674954221811054</v>
+        <v>-0.03490789389675535</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4894,20 +4894,20 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>G85230</t>
+          <t>G53256</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.05536477676458572</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>-0.001603317235025203</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.003529062772797307</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -4933,20 +4933,20 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>G59585</t>
+          <t>G27509</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4955,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>-0.06965273470358821</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.003006281550074565</v>
+        <v>0.00441529983552721</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.004736373721385858</v>
+        <v>-0.009847337779001583</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -4972,20 +4972,20 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C37980</t>
+          <t>C34324</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>G79559</t>
+          <t>G32277</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.03452961077891928</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.006113383471874037</v>
+        <v>-0.01370621385861639</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.005454006103414019</v>
+        <v>-0.006554254268845553</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -5011,20 +5011,20 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C88466</t>
+          <t>C54325</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>G76116</t>
+          <t>G83849</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5033,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>-0.03096418732782369</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.02250835220374293</v>
+        <v>-0.01234145528764122</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.02179532212111474</v>
+        <v>-0.01664707020407702</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -5050,20 +5050,20 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C42457</t>
+          <t>C31039</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>G29530</t>
+          <t>G67880</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5072,18 +5072,57 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.00629974381649603</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.0005837273596362039</v>
+        <v>-0.02003006863367373</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.000526263746820651</v>
+        <v>-0.02323857759228424</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
       </c>
       <c r="K119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>C34324</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>G77916</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>56</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.008958583433373348</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.0008426430171326599</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.001157249284189268</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
         <v>0</v>
       </c>
     </row>

--- a/out/11 Support Group Dissatisfaction.xlsx
+++ b/out/11 Support Group Dissatisfaction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,25 +461,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>dissatisfaction_proba</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>reopened</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>resolution_time</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>no_resolution</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>pvalue</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>relevant</t>
         </is>
@@ -487,952 +492,1024 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G97489</t>
+          <t>G95717</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="E2" t="n">
         <v>246</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1524163568773234</v>
+        <v>0.1521335807050093</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05990092091566601</v>
+        <v>0.1310466698651965</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03139831744141096</v>
+        <v>-0.06094394660843316</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02312654169015953</v>
+        <v>-0.03235146573547035</v>
       </c>
       <c r="J2" t="n">
-        <v>5.69743012911419e-46</v>
-      </c>
-      <c r="K2" t="b">
+        <v>-0.03370998138474249</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.326533263841949e-45</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G43518</t>
+          <t>G16972</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>50.00000000000001</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2840909090909091</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1297626752250001</v>
+        <v>0.2846107398099829</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.06583395546801864</v>
+        <v>-0.1821556103253992</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.006641555900308093</v>
+        <v>-0.0239495235580981</v>
       </c>
       <c r="J3" t="n">
-        <v>2.546239099746898e-22</v>
-      </c>
-      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.110542124283057e-25</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>G90197</t>
+          <t>G86963</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" t="n">
         <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2398373983739837</v>
+        <v>0.2408163265306122</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1288950257888822</v>
+        <v>0.2157522207907388</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.05370773166321965</v>
+        <v>-0.1357103271283082</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01575927651654105</v>
+        <v>-0.05241040834552269</v>
       </c>
       <c r="J4" t="n">
-        <v>6.005972192043832e-22</v>
-      </c>
-      <c r="K4" t="b">
+        <v>-0.02367636280987034</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.621103609605205e-22</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>G94392</t>
+          <t>G81397</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>49.00000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.2832369942196532</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1543375263232517</v>
+        <v>0.2307726665065411</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02523803864407788</v>
+        <v>-0.1373481821012055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0.06837164988897027</v>
       </c>
       <c r="J5" t="n">
-        <v>1.088671025647757e-20</v>
-      </c>
-      <c r="K5" t="b">
+        <v>-0.01642965259243966</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.003858782314173e-21</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>G56815</t>
+          <t>G49787</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2705742172001534</v>
+        <v>0.4047172612170853</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1216271310622281</v>
+        <v>-0.2521522310200583</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0.1106470344524028</v>
       </c>
       <c r="J6" t="n">
-        <v>2.952735673843728e-15</v>
-      </c>
-      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.897629053888325e-19</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G31248</t>
+          <t>G74644</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1248470012239902</v>
+        <v>0.1222351571594878</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04564767612564961</v>
+        <v>0.1224174537956974</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02578403416251344</v>
+        <v>-0.06345339447967865</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01564669070068629</v>
+        <v>-0.03826043629268607</v>
       </c>
       <c r="J7" t="n">
-        <v>2.221497857415034e-14</v>
-      </c>
-      <c r="K7" t="b">
+        <v>-0.004928586608009429</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.530123036663945e-14</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>G61824</t>
+          <t>G75448</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>861</v>
+        <v>824</v>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1207897793263647</v>
+        <v>0.1225728155339806</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06319770562624655</v>
+        <v>0.1008725142097279</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03858655933522015</v>
+        <v>-0.04262786432641363</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.004049535217079761</v>
+        <v>-0.02553622332523331</v>
       </c>
       <c r="J8" t="n">
-        <v>1.030527611410803e-13</v>
-      </c>
-      <c r="K8" t="b">
+        <v>-0.02121101377705775</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.375551547571412e-13</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>G83212</t>
+          <t>G70858</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>222</v>
+        <v>546</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1355311355311355</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0781423199171522</v>
+        <v>0.1292282404991126</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04472197257413997</v>
+        <v>-0.07034260126100682</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01290403021479741</v>
+        <v>-0.03290817911771228</v>
       </c>
       <c r="J9" t="n">
-        <v>2.373729139599068e-12</v>
-      </c>
-      <c r="K9" t="b">
+        <v>-0.0253407957192866</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.892212538608246e-12</v>
+      </c>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C49381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>G25319</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>C34324</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>G22778</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>541</v>
-      </c>
-      <c r="E10" t="n">
-        <v>73</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.1349353049907578</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07114886473649239</v>
+        <v>0.6712511091547264</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03244363286684982</v>
+        <v>-0.4656679265145817</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01915471444523832</v>
+        <v>-0.1370769179467944</v>
       </c>
       <c r="J10" t="n">
-        <v>2.422448855466477e-12</v>
-      </c>
-      <c r="K10" t="b">
+        <v>-0.009121215772619555</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.791864757232844e-12</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G34791</t>
+          <t>G72169</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4837428373938456</v>
+        <v>0.1522717992245213</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1879871819507606</v>
+        <v>-0.07767548589898347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001277613763616004</v>
+        <v>-0.0420484774163361</v>
       </c>
       <c r="J11" t="n">
-        <v>2.61603036642115e-12</v>
-      </c>
-      <c r="K11" t="b">
+        <v>-0.02359436674149535</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.923117663957508e-12</v>
+      </c>
+      <c r="L11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>G29541</t>
+          <t>G44043</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>0.222972972972973</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1374314420884138</v>
+        <v>0.2249202908637892</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06337673196203421</v>
+        <v>-0.1431175266294891</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03555919759035153</v>
+        <v>-0.06864666651183909</v>
       </c>
       <c r="J12" t="n">
-        <v>4.898586900974947e-12</v>
-      </c>
-      <c r="K12" t="b">
+        <v>-0.05423421551335469</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.974959915226714e-12</v>
+      </c>
+      <c r="L12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>G70178</t>
+          <t>G17782</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E13" t="n">
         <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07701213675030436</v>
+        <v>0.1343271548408905</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.03261469923356352</v>
+        <v>-0.07633274146689939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.003851791530537215</v>
+        <v>-0.02968903767222986</v>
       </c>
       <c r="J13" t="n">
-        <v>1.409167023665786e-11</v>
-      </c>
-      <c r="K13" t="b">
+        <v>-0.006634744552701933</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.12272691499165e-11</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>G79141</t>
+          <t>G48001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2391183602560741</v>
+        <v>0.1947596950454889</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.04773940438802065</v>
+        <v>-0.1235909322545333</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.001998088252462649</v>
+        <v>-0.03420036259770571</v>
       </c>
       <c r="J14" t="n">
-        <v>3.934156412106793e-10</v>
-      </c>
-      <c r="K14" t="b">
+        <v>-0.01342770695024929</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.728242663293971e-10</v>
+      </c>
+      <c r="L14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>G76662</t>
+          <t>G89090</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.1546762589928058</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.109333989340236</v>
+        <v>0.132324892412313</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0381883185650631</v>
+        <v>-0.05092923493405577</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01339901011637951</v>
+        <v>-0.03599338846045921</v>
       </c>
       <c r="J15" t="n">
-        <v>4.068111542492015e-10</v>
-      </c>
-      <c r="K15" t="b">
+        <v>-0.01655871149131658</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.302984800544584e-09</v>
+      </c>
+      <c r="L15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>G71272</t>
+          <t>G84112</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04892308086130393</v>
+        <v>0.29808469259128</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03945262311624093</v>
+        <v>-0.2320507262785474</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.006301537555418026</v>
+        <v>-0.04458573996909541</v>
       </c>
       <c r="J16" t="n">
-        <v>1.958262929545955e-09</v>
-      </c>
-      <c r="K16" t="b">
+        <v>-0.003992927883673236</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.106787862057892e-09</v>
+      </c>
+      <c r="L16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>G32866</t>
+          <t>G98148</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57</v>
+        <v>384</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.1276041666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1293088189935853</v>
+        <v>0.08031754898730051</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04982984822214751</v>
+        <v>-0.04332920186794256</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.007868763320376729</v>
+        <v>-0.009867048353666918</v>
       </c>
       <c r="J17" t="n">
-        <v>6.314101010338773e-09</v>
-      </c>
-      <c r="K17" t="b">
+        <v>-0.0002435556967450838</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.118633481153647e-08</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>G30821</t>
+          <t>G93694</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>382</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256544502617801</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04218694052224917</v>
+        <v>0.1856333903323848</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01862994282061622</v>
+        <v>-0.1198452330792713</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0001972431740675188</v>
+        <v>-0.04962511339749655</v>
       </c>
       <c r="J18" t="n">
-        <v>1.091698639865589e-07</v>
-      </c>
-      <c r="K18" t="b">
+        <v>-0.01220497064174584</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.535150463569652e-08</v>
+      </c>
+      <c r="L18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>G45151</t>
+          <t>G81253</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1330177710451841</v>
+        <v>0.1093550771703878</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.05171701012977563</v>
+        <v>-0.04622018591524563</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02142243615887311</v>
+        <v>-0.03486573721183567</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0004144651738373758</v>
-      </c>
-      <c r="K19" t="b">
+        <v>-0.02249873736429438</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0001718616712888355</v>
+      </c>
+      <c r="L19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>G15817</t>
+          <t>G15112</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1191709844559585</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0618103649767888</v>
+        <v>0.109514577709638</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0195234779818806</v>
+        <v>-0.06447122085868369</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.00212405826139379</v>
+        <v>-0.02392071718640755</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0004261347608641671</v>
-      </c>
-      <c r="K20" t="b">
+        <v>-0.004819086384716561</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0004019960566920385</v>
+      </c>
+      <c r="L20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>G33006</t>
+          <t>G83229</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1173184357541899</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06782877747602492</v>
+        <v>0.1160216991603056</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.03253648185322347</v>
+        <v>-0.05314469525493561</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.004001236396809889</v>
+        <v>-0.03326249835215343</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0009045705873370802</v>
-      </c>
-      <c r="K21" t="b">
+        <v>-0.01055243747730639</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0009228827525026195</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>G41153</t>
+          <t>G85839</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>1465</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.07303754266211604</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.05743719554489546</v>
+        <v>0.1026646022276764</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03450325215286289</v>
+        <v>-0.03087803313254911</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003951515469379728</v>
+        <v>-0.03396170003640854</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009820098239844914</v>
-      </c>
-      <c r="K22" t="b">
+        <v>-0.0364947253393706</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002534722936289079</v>
+      </c>
+      <c r="L22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>G98664</t>
+          <t>G75884</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1050583657587549</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.04233450345992267</v>
+        <v>0.1899009514667739</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.03187298334565444</v>
+        <v>-0.1202713523185182</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01430033718831544</v>
+        <v>-0.0503202311904075</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001044117031281985</v>
-      </c>
-      <c r="K23" t="b">
+        <v>-0.03329565482405477</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002695825796496351</v>
+      </c>
+      <c r="L23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>G82135</t>
+          <t>G58548</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.1091954022988506</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1323626471030576</v>
+        <v>0.1199425743069164</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1130311232818142</v>
+        <v>-0.05792869188431972</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.002969820125024294</v>
+        <v>-0.03369068062392662</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001231811597839276</v>
-      </c>
-      <c r="K24" t="b">
+        <v>-0.01476965085901271</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.003748392144124783</v>
+      </c>
+      <c r="L24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>G26561</t>
+          <t>G50204</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1472</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07336956521739131</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03252269847021412</v>
+        <v>0.2449481003094112</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0293018140868461</v>
+        <v>-0.1042681716229703</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.02806509933528424</v>
+        <v>-0.09666435230523865</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001727716064573162</v>
-      </c>
-      <c r="K25" t="b">
+        <v>-0.01380363188285961</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.008702199519086705</v>
+      </c>
+      <c r="L25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>G89475</t>
+          <t>G58365</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1445,33 +1522,36 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03408302497687327</v>
+        <v>0.1355550684637581</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.06508710629966748</v>
+        <v>-0.03945587145694738</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.004616724067524983</v>
+        <v>-0.05475858961249171</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03909913914341511</v>
-      </c>
-      <c r="K26" t="b">
+        <v>-0.006590305923110305</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04016594460860325</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G35694</t>
+          <t>G67104</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1484,33 +1564,36 @@
         <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.08710106382978723</v>
+        <v>0.27128519213718</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1691181151535454</v>
+        <v>-0.1008316715010877</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.1114132064443824</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00292363394597928</v>
-      </c>
-      <c r="K27" t="b">
+        <v>-0.02496797769740807</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.002979053076515109</v>
+      </c>
+      <c r="L27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>G89897</t>
+          <t>G34611</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1523,111 +1606,120 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3137324038254889</v>
+        <v>0.3890890401403743</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.08431772128580636</v>
+        <v>-0.3202601551504484</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.05774840703014764</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01680822242045466</v>
-      </c>
-      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01702105463078918</v>
+      </c>
+      <c r="L28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>G35285</t>
+          <t>G91361</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08582028229829448</v>
+        <v>0.1848366343520161</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03948936038863812</v>
+        <v>-0.1009148491540997</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.02547928426476976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02173671908521699</v>
-      </c>
-      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01856282152232173</v>
+      </c>
+      <c r="L29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C56292</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>G60796</t>
+          <t>G20412</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08415841584158416</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03402465267259346</v>
+        <v>0.8290155440414507</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0178885035218978</v>
+        <v>-0.4872433921427166</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01195298501124374</v>
+        <v>-0.1816941154700221</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05431581795021512</v>
-      </c>
-      <c r="K30" t="b">
+        <v>-0.1003333734988151</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C37760</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>G56395</t>
+          <t>G32988</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1640,33 +1732,36 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5085526315789474</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1781954887218045</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01405375139977605</v>
+        <v>-0.234629294755877</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="K31" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>G78755</t>
+          <t>G79404</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1679,33 +1774,36 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.2166916167664671</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.2823315924581747</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="K32" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>G82826</t>
+          <t>G95019</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1718,33 +1816,36 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.5226063829787234</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1922492401215805</v>
+        <v>-0.5367178848283499</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.08136074197120702</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L33" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>G89901</t>
+          <t>G98779</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1757,33 +1858,36 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2166916167664671</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.234629294755877</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="K34" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L34" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>G45196</t>
+          <t>G28949</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1796,267 +1900,288 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.7820308346624136</v>
+        <v>0.8290155440414507</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1450216450216449</v>
+        <v>-0.4872433921427166</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.1816941154700221</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05493510413522804</v>
-      </c>
-      <c r="K35" t="b">
+        <v>-0.1003333734988151</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>G47962</t>
+          <t>G10947</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00487377517691889</v>
+        <v>-0.713202294381645</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004914553917046049</v>
+        <v>-0.08136074197120702</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06773640265605392</v>
-      </c>
-      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.05529553861251424</v>
+      </c>
+      <c r="L36" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>G73435</t>
+          <t>G46227</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>752</v>
+        <v>202</v>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06648936170212766</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.04367038889991638</v>
+        <v>0.08648830116869494</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01710491666172543</v>
+        <v>-0.03506198006028235</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01005701477557476</v>
+        <v>-0.02422140343265925</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09751420345524152</v>
-      </c>
-      <c r="K37" t="b">
+        <v>-0.01779999472135842</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.05701931367256185</v>
+      </c>
+      <c r="L37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>G15101</t>
+          <t>G61391</t>
         </is>
       </c>
       <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.08457947050823117</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01372819100091827</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.004593741027849554</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1068523426041077</v>
-      </c>
-      <c r="K38" t="b">
+        <v>-0.02856107561289217</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.08495448249514945</v>
+      </c>
+      <c r="L38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C79205</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>G92200</t>
+          <t>G58082</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0755031212943149</v>
+        <v>0.03048493777624526</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.02309438327167567</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0038038658991068</v>
+        <v>-0.005473314704048403</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1297269075933278</v>
-      </c>
-      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1075334806345804</v>
+      </c>
+      <c r="L39" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>G56747</t>
+          <t>G62742</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>65</v>
+        <v>745</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.06577181208053691</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0207866242989281</v>
+        <v>0.09124297936573997</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02094053555013596</v>
+        <v>-0.04341535194344014</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.003611251404403169</v>
+        <v>-0.01632976284334428</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1462926760546005</v>
-      </c>
-      <c r="K40" t="b">
+        <v>-0.01404777151306778</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1222764731025655</v>
+      </c>
+      <c r="L40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C83383</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>G38410</t>
+          <t>G95651</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>23</v>
+      </c>
+      <c r="E41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
       <c r="F41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.2443985183177486</v>
+        <v>0.1308495575761802</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.07859387480645194</v>
+        <v>-0.07896795595960175</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-0.01965412945110733</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1559175021712861</v>
-      </c>
-      <c r="K41" t="b">
+        <v>-0.002221837514584232</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1315988216538003</v>
+      </c>
+      <c r="L41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>G71226</t>
+          <t>G20579</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2069,33 +2194,36 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.193452380952381</v>
+        <v>0.4542506605514902</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01362715744980627</v>
+        <v>-0.1624144640475722</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01619357045143639</v>
+        <v>-0.2272371819393405</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1559175021712861</v>
-      </c>
-      <c r="K42" t="b">
+        <v>-0.08338041322775451</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1568828975165272</v>
+      </c>
+      <c r="L42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>G97305</t>
+          <t>G25785</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2108,33 +2236,36 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1695175438596491</v>
+        <v>0.2794899141700255</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.189437469432879</v>
+        <v>-0.17890596160945</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00468458379992535</v>
+        <v>-0.05815724024280126</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1559175021712861</v>
-      </c>
-      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1568828975165272</v>
+      </c>
+      <c r="L43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>G16057</t>
+          <t>G88767</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2147,525 +2278,567 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2554008491508492</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.01450302343159486</v>
+        <v>-0.1959602897102897</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1559175021712861</v>
-      </c>
-      <c r="K44" t="b">
+        <v>-0.03684760742533226</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1568828975165272</v>
+      </c>
+      <c r="L44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>G81739</t>
+          <t>G40236</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1306515957446809</v>
+        <v>0.04652516165012129</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.04806231003039513</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.02525007559670825</v>
+        <v>0.01656275584104792</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2022872620882299</v>
-      </c>
-      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1568828975165272</v>
+      </c>
+      <c r="L45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>G24058</t>
+          <t>G59178</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04113076839975657</v>
+        <v>0.07841715502954005</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.04336256727954685</v>
+        <v>-0.01760087779858865</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.01472299780188348</v>
+        <v>-0.02043747408587991</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2424031771500346</v>
-      </c>
-      <c r="K46" t="b">
+        <v>-0.007184588253357914</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1572745281973207</v>
+      </c>
+      <c r="L46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>G47364</t>
+          <t>G49842</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>358</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06424581005586592</v>
+        <v>0.25</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02596686665497321</v>
+        <v>0.2054604343120539</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0333664971939339</v>
+        <v>-0.1341794712070875</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.008148144353649139</v>
+        <v>-0.02034018549280175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2492431876377608</v>
-      </c>
-      <c r="K47" t="b">
+        <v>-0.01703616922255343</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2035035118117732</v>
+      </c>
+      <c r="L47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>G26388</t>
+          <t>G17023</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07446808510638298</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02895658987969721</v>
+        <v>0.1038966519645876</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0226087698444433</v>
+        <v>-0.04235958780999435</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.007744595360351429</v>
+        <v>-0.04298572371714883</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2585027639663567</v>
-      </c>
-      <c r="K48" t="b">
+        <v>-0.02377107212602703</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.241002600848393</v>
+      </c>
+      <c r="L48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>G74759</t>
+          <t>G80232</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1300965863009658</v>
+        <v>0.08762559178796973</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.02155979765014032</v>
+        <v>-0.0353163460873801</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.01732355223040924</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2875247368592392</v>
-      </c>
-      <c r="K49" t="b">
+        <v>-0.01001185592261853</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.2986229278739608</v>
+      </c>
+      <c r="L49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>G62397</t>
+          <t>G97024</t>
         </is>
       </c>
       <c r="D50" t="n">
+        <v>353</v>
+      </c>
+      <c r="E50" t="n">
         <v>22</v>
       </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
       <c r="F50" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06232294617563739</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.02375483558994197</v>
+        <v>0.08789149014489324</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.06259213596785937</v>
+        <v>-0.02330048353544366</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>-0.03122663838496662</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3425438261099191</v>
-      </c>
-      <c r="K50" t="b">
+        <v>-0.01715698532459283</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3126752452776005</v>
+      </c>
+      <c r="L50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>G29455</t>
+          <t>G93167</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.05894048829031073</v>
+        <v>0.1287282787970628</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.01995141026501349</v>
+        <v>-0.02880904900031078</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.01537486028187707</v>
+        <v>-0.04413685282420911</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4081116627714242</v>
-      </c>
-      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.3249137030974841</v>
+      </c>
+      <c r="L51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>G69698</t>
+          <t>G63535</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.1584014998183887</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.09125992225401788</v>
+        <v>-0.09590073162318682</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>-0.01862779018208915</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4316494071455748</v>
-      </c>
-      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3284601887404806</v>
+      </c>
+      <c r="L52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>G51630</t>
+          <t>G41977</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0184903748733536</v>
+        <v>0.09879369693831287</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.006026227418124944</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.006641209848367744</v>
+        <v>-0.069460657739878</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5641051649056503</v>
-      </c>
-      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.465120898653208</v>
+      </c>
+      <c r="L53" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>G16761</t>
+          <t>G40673</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>1773</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03296573287700174</v>
+        <v>0.07181555443726295</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.00367717856639382</v>
+        <v>-0.02101615676835881</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>-0.02057730085640341</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5800057340054666</v>
-      </c>
-      <c r="K54" t="b">
+        <v>-0.02845379196074096</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.474773192257436</v>
+      </c>
+      <c r="L54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G66565</t>
+          <t>G39767</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0625</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0103234276166607</v>
+        <v>0.05572202643728785</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.01389032727980156</v>
+        <v>-0.01974429851882614</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.01265002633508958</v>
+        <v>-0.006961029831364715</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6124248394789343</v>
-      </c>
-      <c r="K55" t="b">
+        <v>-0.008125045991707694</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.5346168300940156</v>
+      </c>
+      <c r="L55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>G22625</t>
+          <t>G94778</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1776</v>
+        <v>35</v>
       </c>
       <c r="E56" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05349099099099099</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02052258640455021</v>
+        <v>0.0719747662011955</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.01858371241401432</v>
+        <v>-0.03182049717927062</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.02274851050460565</v>
+        <v>-0.004921006005460777</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6198926045094033</v>
-      </c>
-      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.5836461084926854</v>
+      </c>
+      <c r="L56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>G10405</t>
+          <t>G66439</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>0.05263157894736842</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.03438295642630228</v>
+        <v>0.08691307512107961</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.02918902923969785</v>
+        <v>-0.05141439101907467</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.01394075274059844</v>
+        <v>-0.01973125786845227</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6251173505765291</v>
-      </c>
-      <c r="K57" t="b">
+        <v>-0.0197314612706901</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.616924932578947</v>
+      </c>
+      <c r="L57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2675,480 +2848,516 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>G20145</t>
+          <t>G77279</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0272108843537415</v>
+        <v>0.05286786747499216</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.01058676985510893</v>
+        <v>-0.01062520138652907</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.007219371589104577</v>
+        <v>-0.01402044722835468</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6947228725861571</v>
-      </c>
-      <c r="K58" t="b">
+        <v>-0.01462556686223061</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.616924932578947</v>
+      </c>
+      <c r="L58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>G59167</t>
+          <t>G67156</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02326151758752593</v>
+        <v>0.1106600979754067</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0077537584598216</v>
+        <v>-0.03550696583442775</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.002519342814252765</v>
+        <v>-0.03840179236019959</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6979384620251549</v>
-      </c>
-      <c r="K59" t="b">
+        <v>-0.01922363347378605</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6287458002886701</v>
+      </c>
+      <c r="L59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G75156</t>
+          <t>G27432</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02794302911534155</v>
+        <v>0.0623493385941082</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.01801687319355152</v>
+        <v>-0.02396661252742774</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>-0.007696593964774573</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7423209197625489</v>
-      </c>
-      <c r="K60" t="b">
+        <v>-0.003307634538135236</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.6932067733870678</v>
+      </c>
+      <c r="L60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>G34601</t>
+          <t>G14580</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02193064605521353</v>
+        <v>0.05989490962962164</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.008216747577469433</v>
+        <v>-0.02757135462880805</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.003220769743506489</v>
+        <v>-0.01014393940386402</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8522258063885195</v>
-      </c>
-      <c r="K61" t="b">
+        <v>-0.004400716482453468</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.6971585667782667</v>
+      </c>
+      <c r="L61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>G62454</t>
+          <t>G36563</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.01133102991612618</v>
+        <v>0.07448599312560529</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.006573278216162913</v>
+        <v>-0.02743719901080307</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.005108583478847416</v>
+        <v>-0.007661156100163145</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9577476005263417</v>
-      </c>
-      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7446692083101502</v>
+      </c>
+      <c r="L62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>G31851</t>
+          <t>G52671</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02362204724409449</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.015174635766223</v>
+        <v>0.068176143130863</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.00629745880923834</v>
+        <v>-0.02427448576495763</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.006835056516675382</v>
+        <v>-0.009170546851784044</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9729081548988228</v>
-      </c>
-      <c r="K63" t="b">
+        <v>-0.002988891291022934</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8659035455153923</v>
+      </c>
+      <c r="L63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G44988</t>
+          <t>G93360</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.01414468850669265</v>
+        <v>0.03564417998077594</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.006796056015275304</v>
+        <v>-0.01320744989595639</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.001178272213994818</v>
+        <v>-0.002926860221487961</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9820549937795544</v>
-      </c>
-      <c r="K64" t="b">
+        <v>-0.002167626400167299</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9417621978051451</v>
+      </c>
+      <c r="L64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>G35125</t>
+          <t>G47171</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>328</v>
+        <v>51</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0274390243902439</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01315403604621435</v>
+        <v>0.04960259653441829</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.005274864950343931</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.002495910411321032</v>
+        <v>-0.03960853615482957</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9941110535407209</v>
-      </c>
-      <c r="K65" t="b">
+        <v>-0.002937311821816856</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.945033981127643</v>
+      </c>
+      <c r="L65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>C31039</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>G69540</t>
+          <t>G55677</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01941747572815534</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02062925180864425</v>
+        <v>0.05921400388929973</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.00861691907322521</v>
+        <v>-0.0112102303853738</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.005160842215329355</v>
+        <v>-0.006202372849086961</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9970314247060594</v>
-      </c>
-      <c r="K66" t="b">
+        <v>-0.005516070158998046</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9609276006963942</v>
+      </c>
+      <c r="L66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>G20636</t>
+          <t>G32825</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999999999999999</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.05461344464140917</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.02154564818530294</v>
+        <v>-0.01485579661135155</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.0001562239457243296</v>
+        <v>-0.00921984165374423</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="b">
+        <v>-0.007347457926309487</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.978035339171013</v>
+      </c>
+      <c r="L67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C68041</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>G30790</t>
+          <t>G24830</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.0459876418917628</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01094350783791777</v>
+        <v>-0.01717079916166641</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>-0.01007355370243609</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="b">
+        <v>-0.005639561092967921</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9817974755376344</v>
+      </c>
+      <c r="L68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>G33658</t>
+          <t>G48583</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.05075738483238233</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>-0.01513419172394749</v>
       </c>
       <c r="I69" t="n">
-        <v>0.07246093325509118</v>
+        <v>-0.004615152913796741</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="b">
+        <v>-0.002524570767580715</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9897627250023719</v>
+      </c>
+      <c r="L69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>G53661</t>
+          <t>G22691</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3161,33 +3370,36 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.04168494953927161</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001825961060570045</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>G54019</t>
+          <t>G25990</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -3200,33 +3412,36 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01094350783791777</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-0.02511895246550987</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C31039</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>G91209</t>
+          <t>G63022</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3239,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3248,24 +3463,27 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="b">
+        <v>-0.01704241405477638</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>G55121</t>
+          <t>G96872</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -3278,33 +3496,36 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.04168494953927161</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01094350783791777</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>G32589</t>
+          <t>G86207</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3317,33 +3538,36 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.1919642857142857</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.06793430682494658</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.1118908382066277</v>
+        <v>-0.1836259891091636</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>G34476</t>
+          <t>G63700</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3356,33 +3580,36 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5085526315789474</v>
+        <v>0.04168494953927161</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.1781954887218045</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01405375139977605</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>G44017</t>
+          <t>G29330</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -3395,33 +3622,36 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.2965255591054313</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>-0.3163914412388357</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>G48191</t>
+          <t>G33644</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3434,33 +3664,36 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.1484375</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>-0.08899694055944056</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="b">
+        <v>-0.114980250929368</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>G57624</t>
+          <t>G38815</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3473,33 +3706,36 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.8290155440414507</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.2166916167664671</v>
+        <v>-0.4872433921427166</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>-0.1816941154700221</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="b">
+        <v>-0.1003333734988151</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G67709</t>
+          <t>G40055</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3512,33 +3748,36 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.007654973340492151</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="b">
+        <v>4.96327178876356e-06</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>G70908</t>
+          <t>G44362</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3551,33 +3790,36 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.2166916167664671</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>-0.2823315924581747</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G74958</t>
+          <t>G44588</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3590,33 +3832,36 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.04350907029478458</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>-0.1014492753623188</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>G86473</t>
+          <t>G46158</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3629,33 +3874,36 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.04353238429777531</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>-0.04786728926669853</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>G56371</t>
+          <t>G68618</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3668,33 +3916,36 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.09461155795248501</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>-0.04903875257520578</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G71081</t>
+          <t>G92457</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3707,33 +3958,36 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>-0.04903875257520578</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>G93598</t>
+          <t>G95006</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3746,33 +4000,36 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.04350907029478458</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>-0.234629294755877</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="b">
+        <v>-0.1498078661844484</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C68041</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>G98399</t>
+          <t>G64869</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3785,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.02238137869292748</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3794,28 +4051,31 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>G30687</t>
+          <t>G14023</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -3824,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.008338296605122097</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3833,28 +4093,31 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C15468</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>G60960</t>
+          <t>G46472</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3863,37 +4126,40 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>-0.09311097875719675</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>G17975</t>
+          <t>G71193</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3902,33 +4168,36 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.04168494953927161</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02196835255841467</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>G22440</t>
+          <t>G45590</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3941,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.02501162307219686</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3950,24 +4219,27 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C43436</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>G39455</t>
+          <t>G20501</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3980,33 +4252,36 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02212594553572536</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.02709026622296173</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>G58091</t>
+          <t>G83553</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -4019,33 +4294,36 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.1467067805383023</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.03143070086140287</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>-0.1383684839331802</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>G60223</t>
+          <t>G47444</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4058,33 +4336,36 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.05572619569986836</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.02067183462532299</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>G65098</t>
+          <t>G61989</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -4097,33 +4378,36 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2542763157894737</v>
+        <v>0.05056275448991553</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.08909774436090223</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.007026875699888024</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="b">
+        <v>-0.02972027972027972</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G47862</t>
+          <t>G67868</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4136,33 +4420,36 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.06907197112513017</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>-0.02451937628760289</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G48248</t>
+          <t>G76371</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4175,37 +4462,40 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.04168494953927161</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.06168831168831169</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.06097875634299476</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C12484</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>G92219</t>
+          <t>G79359</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4214,37 +4504,40 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2237309600028142</v>
+        <v>0.008338296605122097</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.05802878083200744</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>G23980</t>
+          <t>G91889</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4253,37 +4546,40 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.4186769203232864</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>-0.2436216960713583</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>-0.09084705773501106</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="b">
+        <v>-0.05016668674940755</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>G66203</t>
+          <t>G98748</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4292,33 +4588,36 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.1143486876693493</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0002825113424230729</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.01612702849600124</v>
+        <v>-0.006734513532147955</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="b">
+        <v>-0.02799980996947635</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C40846</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>G59224</t>
+          <t>G70944</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -4331,33 +4630,36 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.3186981931874281</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.03715556370757397</v>
+        <v>-0.2638000473821369</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.0372969460688759</v>
+        <v>-0.08624996828215407</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C86297</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G91832</t>
+          <t>G36406</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4370,37 +4672,40 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.08139216786444188</v>
       </c>
       <c r="H101" t="n">
-        <v>-3.635943151352137e-05</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.001279056834612389</v>
+        <v>-0.04490588709338709</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
+        <v>-0.0535653361261</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>G91855</t>
+          <t>G40477</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4409,37 +4714,40 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.05760892269604263</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0258599344708628</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.04400972423165303</v>
+        <v>-0.00704462921437501</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="b">
+        <v>-0.0186665399796509</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>C82879</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>G27027</t>
+          <t>G73289</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4448,37 +4756,40 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.038684477843162</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.07271758034355238</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>C85436</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>G46465</t>
+          <t>G48914</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4487,37 +4798,40 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.06341101522525135</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-0.02213786510755091</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="b">
+        <v>-0.03832675030978935</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C91479</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>G44551</t>
+          <t>G42735</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -4526,37 +4840,40 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.02783487166064936</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.1651377124880624</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>-0.005994152046783626</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="b">
+        <v>0.002380486532315919</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>G23647</t>
+          <t>G52306</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -4565,37 +4882,40 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.1221992591588743</v>
+        <v>0.1523375265533723</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.0903296376403024</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.01864847303443795</v>
+        <v>-0.1439992299482502</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C71708</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>G30193</t>
+          <t>G16436</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4604,37 +4924,40 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.008338296605122097</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.01191612092491579</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C87839</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>G53241</t>
+          <t>G98441</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -4643,37 +4966,40 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.1031619146208172</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.003220675710969665</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>-0.04809949674924069</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="b">
+        <v>-0.07598440366656271</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>G54419</t>
+          <t>G87392</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -4682,33 +5008,36 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.2517315961443035</v>
       </c>
       <c r="H109" t="n">
-        <v>0.01079219112794819</v>
+        <v>-0.1045388158633861</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.02322022819111005</v>
+        <v>-0.128379067072224</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="b">
+        <v>-0.01916337515489467</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>G82765</t>
+          <t>G13686</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -4721,37 +5050,40 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.1464072942216179</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.08807112125459891</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02469422678329265</v>
+        <v>-0.1047608984661172</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="b">
+        <v>-0.08622435858954806</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>G24269</t>
+          <t>G21431</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -4760,37 +5092,40 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>0.08656881587539175</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.1271244457108539</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>-0.003588421780787124</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>G74807</t>
+          <t>G34581</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4799,37 +5134,40 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.09562225306500115</v>
+        <v>0.0300227598827624</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.01812403387705563</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>-0.02883157465345925</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>G19169</t>
+          <t>G59224</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4838,37 +5176,40 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.04804044317722129</v>
       </c>
       <c r="H113" t="n">
-        <v>0.003937583585720864</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="b">
+        <v>-0.02426486728729162</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C74016</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>G66697</t>
+          <t>G10477</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4877,37 +5218,40 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.1080366829892932</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.03490789389675535</v>
+        <v>-0.08690311518400046</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>-0.0130716852012795</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>G53256</t>
+          <t>G77549</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -4916,37 +5260,40 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.1217333520046912</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.001603317235025203</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>-0.07189257666369275</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>G27509</t>
+          <t>G10854</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -4955,37 +5302,40 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.06965273470358821</v>
+        <v>0.02647142056704009</v>
       </c>
       <c r="H116" t="n">
-        <v>0.00441529983552721</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.009847337779001583</v>
+        <v>-0.002511895246550987</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C49381</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>G32277</t>
+          <t>G55668</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -4994,37 +5344,40 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.06417656066395269</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.01370621385861639</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.006554254268845553</v>
+        <v>-0.0365983915424582</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>C54325</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>G83849</t>
+          <t>G67487</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -5033,37 +5386,40 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.03096418732782369</v>
+        <v>0.01551514016669635</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.01234145528764122</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.01664707020407702</v>
+        <v>-0.007176843561574248</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C31039</t>
+          <t>C66554</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>G67880</t>
+          <t>G65502</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5072,57 +5428,189 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.1299482657109181</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.02003006863367373</v>
+        <v>-0.07778872568740397</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.02323857759228424</v>
+        <v>-0.001569934529094367</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="b">
+        <v>-0.01235057006721688</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C34324</t>
+          <t>C58420</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>G77916</t>
+          <t>G93428</t>
         </is>
       </c>
       <c r="D120" t="n">
+        <v>17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03611542499911726</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.01397703787905674</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.01030248021281539</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C66554</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>G71127</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>21</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.09170472418333921</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.03351604313399664</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.01469513395048203</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.01783241999263824</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>C68041</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>G76693</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>30</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.07982720708552865</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.03255352666807208</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.03943305316629395</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>C58420</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>G87266</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
         <v>56</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-0.008958583433373348</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-0.0008426430171326599</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.001157249284189268</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="b">
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.02544742967869025</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.01128245629647208</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.003402080546500225</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.772597067415557e-07</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="b">
         <v>0</v>
       </c>
     </row>
